--- a/results/translation_results_desktop.xlsx
+++ b/results/translation_results_desktop.xlsx
@@ -135,7 +135,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18268950" cy="8943975"/>
+    <ext cx="18278475" cy="10277475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -160,7 +160,7 @@
       <row>61</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18268950" cy="8924925"/>
+    <ext cx="18278475" cy="10277475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -178,31 +178,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>121</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18268950" cy="8943975"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -215,7 +190,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18268950" cy="8943975"/>
+    <ext cx="18278475" cy="10277475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -240,7 +215,7 @@
       <row>61</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18268950" cy="8924925"/>
+    <ext cx="18278475" cy="10277475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -248,31 +223,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>121</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18268950" cy="8943975"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -613,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,66 +596,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4_1.png</t>
+          <t>2_1.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mYBCA 颧 交易  我的账户 转账 颧 转账 莱单 添加收款账号 转账清单 至BCA账户 至其他银行账户 至其他银行外币账户 至代理地址 请选择您要进行的交易。 至BCA虚拟账户 至SakUkU BagiBagi 导入转账清单 基础交易单据 2021PTBank Central Asia Tbk AIIRights Reserved。 https:yomniweb-omni-frontend-Uatg apps;pcfdevqra dticoid</t>
+          <t>IYBCA 邮件已发送 G translate Google Search x + omgwg.umundus net/dashboard 8 |H Relaunch to update myBCA 赢 交易 ` 我的账户 . 你好, DATA TRACK 41 BCA ID VI* **大***+1 上次登录时间 2025年10月16809:48:44 UTC+7 Tidak dapa TAHAPAN GOLD IDR 0482278769 转账 投资组合 保障 IDR Gebval Lifestyle Paylater 其他 TheNew HadianBCA 点击赢好礼 Payment &amp; TopUp MPN N3 NEN Phone MPN Streaming Mobile Data PLN e-Wallet Retribution 其他 Credit Voucher 1inch ofrain 9:48 AM Search Gd) 匈 10/16/2025 Friday</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mYBCA 駧 Transaction My Account Transfer 駧 Transfer Menu Add beneficiary account Transfer list To BCA account To other bank account To other bank foreign currency account To agent address Please select the transaction you want to make. To BCA virtual account To SakUkU BagiBagi Import transfer list Basic transaction document 2021PTBank Central Asia Tbk AIIRights Reserved. https:yomniweb-omni-frontend-Uatg apps;pcfdevqra dticoid</t>
+          <t>IYBCA email has been sent G translate Google Search 0482278769 Transfer Portfolio Protection IDR Gebval Lifestyle Paylater Others TheNew HadianBCA Click to Win Gifts Payment &amp; TopUp MPN N3 NEN Phone MPN Streaming Mobile Data PLN e-Wallet Retribution Others Credit Voucher 1inch ofrain 9:48 AM Search Gd) Hungary 10/16/2025 Friday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mYBCA 駧 Transaksi Rekening Saya Transfer 駧 Menu Transfer Tambah rekening penerima Daftar transfer Ke rekening BCA Ke rekening bank lain Ke rekening bank lain mata uang asing Ke alamat agen Silakan pilih transaksi yang ingin Anda lakukan. Ke rekening virtual BCA Ke SakUkU BagiBagi Daftar transfer impor Dokumen transaksi dasar 2021PTBank Central Asia Tbk AIIHak Dilindungi Undang-Undang. https:yomniweb-omni-frontend-Uatg apps;pcfdevqra dticoid</t>
+          <t>Email IYBCA telah terkirim G Translate Pencarian Google 0482278769 Perlindungan Portofolio Transfer IDR Gebval Gaya Hidup Paylater Lainnya TheNew HadianBCA Klik untuk Menang Hadiah Pembayaran &amp; TopUp MPN N3 NEN Telepon MPN Streaming Data Seluler Retribusi e-Wallet PLN Lainnya Voucher Pulsa 1 inci hujan 09:48 Gd Pencarian) Hongaria 16/10/2025 Jumat</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4_22.png</t>
+          <t>71_1.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>myBCA 歆 交易 . 我的账户 转账 颧 转账 至其他银行账户 莱单 转账至其他银行账户 添加收款账号 转账类型 实时转账 转账清单 付款账户 选择付款账户 至8CA账户 收款账户 选择收款账户 至其他银行账户 金额 IDR 至其他银行外币账户 转账服务 BlFAST Online LLG RTGS 至代理地址 请在KeyBCA Appli 2输入以下8 10 位数字 诗确定末6位与曰标账户号码一致 至BCA虚拟账户 KeyBCA Appli 2动态码 至SakUkU 注意事项 8CA对因填写资料不实所造战的 切后果不承担任何责任。 BagiBagi 导入转账清单 基础交易单据 2021PTBank Central Asia Tbk AIIRights Reserved。</t>
+          <t>IYBCA 邮件已发送 G translate Google Search x + @ omgwg.umundus net/dashboard 8 |H Relaunch to update myBCA 苜 交易 ` 我的账户 . 我的通知 你好, DATA TRACK 41 BCA ID VI* **大***+1 银行公告 优惠活动 财富洞察 上次登录时间 2025年10月16809:48:44 UTC+7 Tidak dapa 资金流动 -支出 2025年10月158 TAHAPAN GOLD IDR 您消费IDR 25,000.00,分类为Payment。 0482278769 转账 投资纠 资金流动 -支出 2025年10月158 您消费IDR25,000.00,分类为Credit Card/Paylater BCA IDR Payment。 Lifestyle Payla TheNew Gebvak HadianBCA 点击赢好礼 资金流动 -支出 2025年10月158 您消费IDR30,000.00,分类为Utilities。 资金流动 -支出 2025年10月158 Payment &amp; TopUp 您消费IDR1,000.00,分类为Business Expense。 次^士~力 士山 363CI1601C5 MPN 查看更多 Phone MPN Streaming Mobile Data PLN VVAIICL 下CLIIUULIUII 只心 Credit Voucher Hot weather 9:50 AM Now Search Gd) @ 10/16/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>myBCA Xin Transaction . My Account Transfer Transfer to other bank account Menu Transfer to other bank account Add beneficiary account Transfer type Real-time transfer Transfer list Payment account Select payment account To 8CA account Recipient account Select beneficiary account To other bank account Amount IDR to other bank foreign currency account Transfer service BlFAST Online LLG RTGS to agent address Please enter the following 8 in KeyBCA Appli 2 10-digit number. Make sure the last 6 digits are consistent with the Japanese account number. Go to BCA virtual account KeyBCA Appli 2 dynamic code to SakUkU. Note: 8CA is not responsible for any consequences caused by incorrectly filling in the information. BagiBagi Import Transfer List Basic Transaction Document 2021PTBank Central Asia Tbk AIIRights Reserved.</t>
+          <t>IYBCA email has been sent G translate Google Search x + @ omgwg.umundus net/dashboard 8 |H Relaunch to update myBCA 苜Trading ` My Account . My Notifications Hello, DATA TRACK 41 BCA ID VI* **大***+1 Bank Announcements Promotions Wealth Insights Last login time October 2025 16809:48:44 UTC+7 Tidak dapa Fund Flow - Expenditure October 2025 158 TAHAPAN GOLD IDR You spent IDR 25,000.00, classified as Payment. 0482278769 Transfer Investment Fund Flow - Expenditure October 158, 2025 You spent IDR25,000.00, classified as Credit Card/Paylater BCA IDR Payment. Lifestyle Payla TheNew Gebvak HadianBCA Click to Win Gifts Fund Flow - Expenditure October 2025 158 You spent IDR30,000.00, classified as Utilities. Fund Flow - Expenditure October 2025 158 Payment &amp; TopUp You spent IDR1,000.00, classified as Business Expense. Times^Shi~lux mountain 363CI1601C5 MPN View more Phone MPN Streaming Mobile Data PLN VVAIICL 下CLIIUULIUII Only Heart Credit Voucher Hot weather 9:50 AM Now Search Gd) @ 10/16/2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Transaksi myBCA Xin. Rekening Saya Transfer Transfer ke rekening bank lain Menu Transfer ke rekening bank lain Tambahkan rekening penerima Jenis transfer Transfer real-time Daftar transfer Rekening pembayaran Pilih rekening pembayaran Ke rekening 8CA Rekening penerima Pilih rekening penerima Ke rekening bank lain Jumlah Rp ke rekening mata uang asing bank lain Layanan transfer BlFAST Online LLG RTGS ke alamat agen Silakan masukkan angka 8 berikut di KeyBCA Appli 2 10 digit nomor. Pastikan 6 digit terakhir sesuai dengan nomor rekening Jepang. Masuk ke rekening virtual BCA KeyBCA Appli 2 kode dinamis ke SakUkU. Catatan: 8CA tidak bertanggung jawab atas segala akibat yang disebabkan oleh kesalahan pengisian informasi. BagiBagi Daftar Transfer Impor Dokumen Dasar Transaksi 2021PTBank Central Asia Tbk AIIHak Dilindungi Undang-Undang.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4_43.png</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>myBCA 颧 交易  我的账户 转账 颧 转账 导入转账清单 莱单 导入转账清单 添加收款账号 8 NK IOOII BC 转账清单 至BCA账户 Km-BCA和KlikBCA 导入转账清单。享受更快捷的转账体验。 至其他银行账户 注意事项 转账清单每日最多可分三次导入 转账清单导入过程。是将您存在于m-BCA和 KlikeCA Individu中的转账清单豆制到my8CA的转账 清单中 至其他银行外币账户 M-BCA KlikBCA Individu和 my8cA中的转账清单是相互独立。互不关联的 导入过程可能需要 些对间。之后才能在my8C4的转账清单中使用 至代理地址 导入清单 至BCA虚拟账户 至SakUkU BagiBagi 导入转账清单 基础交易单据 2021PTBank Central Asia Tbk; AIRights Reserved</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>myBCA Transaction My Account Transfer Transfer Import transfer list Menu Import transfer list Add payment account 8 NK IOOII BC Transfer list to BCA account Km-BCA and KlikBCA Import transfer list. Enjoy a faster transfer experience. To other bank accounts Note: The transfer list can be imported in up to three times a day. The transfer list import process. It is to put your transfer list in m-BCA and KlikeCA Individu into the transfer list in my8CA to other bank foreign currency accounts. The transfer lists in M-BCA KlikBCA Individu and my8cA are independent of each other. Unrelated import processes may require several pairs. Then it can be used in the transfer list of my8C4 To the agent address Import the list To BCA virtual account To SakUkU BagiBagi Import the transfer list Basic transaction document 2021PTBank Central Asia Tbk; AIRights Reserved</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Transaksi myBCA Rekening Saya Transfer Transfer Impor daftar transfer Menu Impor daftar transfer Tambahkan rekening pembayaran 8 NK IOOII BC Daftar transfer ke rekening BCA Km-BCA dan KlikBCA Daftar transfer impor. Nikmati pengalaman transfer yang lebih cepat. Ke rekening bank lain Catatan: Daftar transfer dapat diimpor hingga tiga kali sehari. Proses impor daftar transfer. Caranya dengan memasukkan daftar transfer Anda di m-BCA dan KlikeCA Individu ke dalam daftar transfer di my8CA ke rekening bank mata uang asing lainnya. Daftar transfer di M-BCA KlikBCA Individu dan my8cA tidak saling berhubungan. Proses impor yang tidak terkait mungkin memerlukan beberapa pasangan. Kemudian dapat digunakan pada daftar transfer my8C4 Ke alamat agen Impor daftar Ke virtual account BCA Ke SakUkU BagiBagi Impor daftar transfer Dokumen dasar transaksi 2021PTBank Central Asia Tbk; Hak Cipta Dilindungi Undang-undang</t>
+          <t>Email IYBCA telah terkirim G menerjemahkan Pencarian Google x + @ omgwg.umundus net/dashboard 8 |H Luncurkan kembali untuk memperbarui myBCA 苜Trading ` Akun Saya . Notifikasi Saya Halo, DATA TRACK 41 BCA ID VI* **大***+1 Pengumuman Bank Promosi Wealth Insight Waktu login terakhir Oktober 2025 16809:48:44 UTC+7 Tidak dapa Aliran Dana - Pengeluaran Oktober 2025 158 TAHAPAN GOLD IDR Anda membelanjakan IDR 25,000.00, diklasifikasikan sebagai Pembayaran. 0482278769 Aliran Dana Investasi Transfer - Pengeluaran 158 Oktober 2025 Anda membelanjakan Rp25.000,00, tergolong Pembayaran Kartu Kredit/Paylater BCA IDR. Gaya Hidup Payla TheNew Gebvak HadianBCA Click to Win Hadiah Aliran Dana - Pengeluaran Oktober 2025 158 Anda membelanjakan Rp30.000,00, diklasifikasikan sebagai Utilitas. Aliran Dana - Pengeluaran Oktober 2025 158 Pembayaran &amp; TopUp Anda membelanjakan Rp1.000,00, diklasifikasikan sebagai Pengeluaran Bisnis. Times^Shi~lux mountain 363CI1601C5 MPN Lihat selengkapnya Telepon MPN Streaming Data Seluler PLN VVAIICL 下CLIIUULIUII Hanya Voucher Pulsa Hati Cuaca panas 9:50 Sekarang Cari Gd) @ 16/10/2025</t>
         </is>
       </c>
     </row>

--- a/results/translation_results_desktop.xlsx
+++ b/results/translation_results_desktop.xlsx
@@ -135,7 +135,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18278475" cy="10277475"/>
+    <ext cx="18268950" cy="8943975"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -160,7 +160,7 @@
       <row>61</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18278475" cy="10277475"/>
+    <ext cx="18268950" cy="8924925"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -168,6 +168,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>121</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18268950" cy="8943975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -190,7 +215,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18278475" cy="10277475"/>
+    <ext cx="18268950" cy="8943975"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -215,7 +240,7 @@
       <row>61</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18278475" cy="10277475"/>
+    <ext cx="18268950" cy="8924925"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -223,6 +248,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>121</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18268950" cy="8943975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -563,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,44 +646,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2_1.png</t>
+          <t>4_1.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IYBCA 邮件已发送 G translate Google Search x + omgwg.umundus net/dashboard 8 |H Relaunch to update myBCA 赢 交易 ` 我的账户 . 你好, DATA TRACK 41 BCA ID VI* **大***+1 上次登录时间 2025年10月16809:48:44 UTC+7 Tidak dapa TAHAPAN GOLD IDR 0482278769 转账 投资组合 保障 IDR Gebval Lifestyle Paylater 其他 TheNew HadianBCA 点击赢好礼 Payment &amp; TopUp MPN N3 NEN Phone MPN Streaming Mobile Data PLN e-Wallet Retribution 其他 Credit Voucher 1inch ofrain 9:48 AM Search Gd) 匈 10/16/2025 Friday</t>
+          <t>mYBCA 颧 交易  我的账户 转账 颧 转账 莱单 添加收款账号 转账清单 至BCA账户 至其他银行账户 至其他银行外币账户 至代理地址 请选择您要进行的交易。 至BCA虚拟账户 至SakUkU BagiBagi 导入转账清单 基础交易单据 2021PTBank Central Asia Tbk AIIRights Reserved。 https:yomniweb-omni-frontend-Uatg apps;pcfdevqra dticoid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IYBCA email has been sent G translate Google Search 0482278769 Transfer Portfolio Protection IDR Gebval Lifestyle Paylater Others TheNew HadianBCA Click to Win Gifts Payment &amp; TopUp MPN N3 NEN Phone MPN Streaming Mobile Data PLN e-Wallet Retribution Others Credit Voucher 1inch ofrain 9:48 AM Search Gd) Hungary 10/16/2025 Friday</t>
+          <t>mYBCA 駧 Transaction My Account Transfer 駧 Transfer Menu Add beneficiary account Transfer list To BCA account To other bank account To other bank foreign currency account To agent address Please select the transaction you want to make. To BCA virtual account To SakUkU BagiBagi Import transfer list Basic transaction document 2021PTBank Central Asia Tbk AIIRights Reserved. https:yomniweb-omni-frontend-Uatg apps;pcfdevqra dticoid</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Email IYBCA telah terkirim G Translate Pencarian Google 0482278769 Perlindungan Portofolio Transfer IDR Gebval Gaya Hidup Paylater Lainnya TheNew HadianBCA Klik untuk Menang Hadiah Pembayaran &amp; TopUp MPN N3 NEN Telepon MPN Streaming Data Seluler Retribusi e-Wallet PLN Lainnya Voucher Pulsa 1 inci hujan 09:48 Gd Pencarian) Hongaria 16/10/2025 Jumat</t>
+          <t>mYBCA 駧 Transaksi Rekening Saya Transfer 駧 Menu Transfer Tambah rekening penerima Daftar transfer Ke rekening BCA Ke rekening bank lain Ke rekening bank lain mata uang asing Ke alamat agen Silakan pilih transaksi yang ingin Anda lakukan. Ke rekening virtual BCA Ke SakUkU BagiBagi Daftar transfer impor Dokumen transaksi dasar 2021PTBank Central Asia Tbk AIIHak Dilindungi Undang-Undang. https:yomniweb-omni-frontend-Uatg apps;pcfdevqra dticoid</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>71_1.png</t>
+          <t>4_22.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IYBCA 邮件已发送 G translate Google Search x + @ omgwg.umundus net/dashboard 8 |H Relaunch to update myBCA 苜 交易 ` 我的账户 . 我的通知 你好, DATA TRACK 41 BCA ID VI* **大***+1 银行公告 优惠活动 财富洞察 上次登录时间 2025年10月16809:48:44 UTC+7 Tidak dapa 资金流动 -支出 2025年10月158 TAHAPAN GOLD IDR 您消费IDR 25,000.00,分类为Payment。 0482278769 转账 投资纠 资金流动 -支出 2025年10月158 您消费IDR25,000.00,分类为Credit Card/Paylater BCA IDR Payment。 Lifestyle Payla TheNew Gebvak HadianBCA 点击赢好礼 资金流动 -支出 2025年10月158 您消费IDR30,000.00,分类为Utilities。 资金流动 -支出 2025年10月158 Payment &amp; TopUp 您消费IDR1,000.00,分类为Business Expense。 次^士~力 士山 363CI1601C5 MPN 查看更多 Phone MPN Streaming Mobile Data PLN VVAIICL 下CLIIUULIUII 只心 Credit Voucher Hot weather 9:50 AM Now Search Gd) @ 10/16/2025</t>
+          <t>myBCA 歆 交易 . 我的账户 转账 颧 转账 至其他银行账户 莱单 转账至其他银行账户 添加收款账号 转账类型 实时转账 转账清单 付款账户 选择付款账户 至8CA账户 收款账户 选择收款账户 至其他银行账户 金额 IDR 至其他银行外币账户 转账服务 BlFAST Online LLG RTGS 至代理地址 请在KeyBCA Appli 2输入以下8 10 位数字 诗确定末6位与曰标账户号码一致 至BCA虚拟账户 KeyBCA Appli 2动态码 至SakUkU 注意事项 8CA对因填写资料不实所造战的 切后果不承担任何责任。 BagiBagi 导入转账清单 基础交易单据 2021PTBank Central Asia Tbk AIIRights Reserved。</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IYBCA email has been sent G translate Google Search x + @ omgwg.umundus net/dashboard 8 |H Relaunch to update myBCA 苜Trading ` My Account . My Notifications Hello, DATA TRACK 41 BCA ID VI* **大***+1 Bank Announcements Promotions Wealth Insights Last login time October 2025 16809:48:44 UTC+7 Tidak dapa Fund Flow - Expenditure October 2025 158 TAHAPAN GOLD IDR You spent IDR 25,000.00, classified as Payment. 0482278769 Transfer Investment Fund Flow - Expenditure October 158, 2025 You spent IDR25,000.00, classified as Credit Card/Paylater BCA IDR Payment. Lifestyle Payla TheNew Gebvak HadianBCA Click to Win Gifts Fund Flow - Expenditure October 2025 158 You spent IDR30,000.00, classified as Utilities. Fund Flow - Expenditure October 2025 158 Payment &amp; TopUp You spent IDR1,000.00, classified as Business Expense. Times^Shi~lux mountain 363CI1601C5 MPN View more Phone MPN Streaming Mobile Data PLN VVAIICL 下CLIIUULIUII Only Heart Credit Voucher Hot weather 9:50 AM Now Search Gd) @ 10/16/2025</t>
+          <t>myBCA Xin Transaction . My Account Transfer Transfer to other bank account Menu Transfer to other bank account Add beneficiary account Transfer type Real-time transfer Transfer list Payment account Select payment account To 8CA account Recipient account Select beneficiary account To other bank account Amount IDR to other bank foreign currency account Transfer service BlFAST Online LLG RTGS to agent address Please enter the following 8 in KeyBCA Appli 2 10-digit number. Make sure the last 6 digits are consistent with the Japanese account number. Go to BCA virtual account KeyBCA Appli 2 dynamic code to SakUkU. Note: 8CA is not responsible for any consequences caused by incorrectly filling in the information. BagiBagi Import Transfer List Basic Transaction Document 2021PTBank Central Asia Tbk AIIRights Reserved.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Email IYBCA telah terkirim G menerjemahkan Pencarian Google x + @ omgwg.umundus net/dashboard 8 |H Luncurkan kembali untuk memperbarui myBCA 苜Trading ` Akun Saya . Notifikasi Saya Halo, DATA TRACK 41 BCA ID VI* **大***+1 Pengumuman Bank Promosi Wealth Insight Waktu login terakhir Oktober 2025 16809:48:44 UTC+7 Tidak dapa Aliran Dana - Pengeluaran Oktober 2025 158 TAHAPAN GOLD IDR Anda membelanjakan IDR 25,000.00, diklasifikasikan sebagai Pembayaran. 0482278769 Aliran Dana Investasi Transfer - Pengeluaran 158 Oktober 2025 Anda membelanjakan Rp25.000,00, tergolong Pembayaran Kartu Kredit/Paylater BCA IDR. Gaya Hidup Payla TheNew Gebvak HadianBCA Click to Win Hadiah Aliran Dana - Pengeluaran Oktober 2025 158 Anda membelanjakan Rp30.000,00, diklasifikasikan sebagai Utilitas. Aliran Dana - Pengeluaran Oktober 2025 158 Pembayaran &amp; TopUp Anda membelanjakan Rp1.000,00, diklasifikasikan sebagai Pengeluaran Bisnis. Times^Shi~lux mountain 363CI1601C5 MPN Lihat selengkapnya Telepon MPN Streaming Data Seluler PLN VVAIICL 下CLIIUULIUII Hanya Voucher Pulsa Hati Cuaca panas 9:50 Sekarang Cari Gd) @ 16/10/2025</t>
+          <t>Transaksi myBCA Xin. Rekening Saya Transfer Transfer ke rekening bank lain Menu Transfer ke rekening bank lain Tambahkan rekening penerima Jenis transfer Transfer real-time Daftar transfer Rekening pembayaran Pilih rekening pembayaran Ke rekening 8CA Rekening penerima Pilih rekening penerima Ke rekening bank lain Jumlah Rp ke rekening mata uang asing bank lain Layanan transfer BlFAST Online LLG RTGS ke alamat agen Silakan masukkan angka 8 berikut di KeyBCA Appli 2 10 digit nomor. Pastikan 6 digit terakhir sesuai dengan nomor rekening Jepang. Masuk ke rekening virtual BCA KeyBCA Appli 2 kode dinamis ke SakUkU. Catatan: 8CA tidak bertanggung jawab atas segala akibat yang disebabkan oleh kesalahan pengisian informasi. BagiBagi Daftar Transfer Impor Dokumen Dasar Transaksi 2021PTBank Central Asia Tbk AIIHak Dilindungi Undang-Undang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4_43.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>myBCA 颧 交易  我的账户 转账 颧 转账 导入转账清单 莱单 导入转账清单 添加收款账号 8 NK IOOII BC 转账清单 至BCA账户 Km-BCA和KlikBCA 导入转账清单。享受更快捷的转账体验。 至其他银行账户 注意事项 转账清单每日最多可分三次导入 转账清单导入过程。是将您存在于m-BCA和 KlikeCA Individu中的转账清单豆制到my8CA的转账 清单中 至其他银行外币账户 M-BCA KlikBCA Individu和 my8cA中的转账清单是相互独立。互不关联的 导入过程可能需要 些对间。之后才能在my8C4的转账清单中使用 至代理地址 导入清单 至BCA虚拟账户 至SakUkU BagiBagi 导入转账清单 基础交易单据 2021PTBank Central Asia Tbk; AIRights Reserved</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>myBCA Transaction My Account Transfer Transfer Import transfer list Menu Import transfer list Add payment account 8 NK IOOII BC Transfer list to BCA account Km-BCA and KlikBCA Import transfer list. Enjoy a faster transfer experience. To other bank accounts Note: The transfer list can be imported in up to three times a day. The transfer list import process. It is to put your transfer list in m-BCA and KlikeCA Individu into the transfer list in my8CA to other bank foreign currency accounts. The transfer lists in M-BCA KlikBCA Individu and my8cA are independent of each other. Unrelated import processes may require several pairs. Then it can be used in the transfer list of my8C4 To the agent address Import the list To BCA virtual account To SakUkU BagiBagi Import the transfer list Basic transaction document 2021PTBank Central Asia Tbk; AIRights Reserved</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Transaksi myBCA Rekening Saya Transfer Transfer Impor daftar transfer Menu Impor daftar transfer Tambahkan rekening pembayaran 8 NK IOOII BC Daftar transfer ke rekening BCA Km-BCA dan KlikBCA Daftar transfer impor. Nikmati pengalaman transfer yang lebih cepat. Ke rekening bank lain Catatan: Daftar transfer dapat diimpor hingga tiga kali sehari. Proses impor daftar transfer. Caranya dengan memasukkan daftar transfer Anda di m-BCA dan KlikeCA Individu ke dalam daftar transfer di my8CA ke rekening bank mata uang asing lainnya. Daftar transfer di M-BCA KlikBCA Individu dan my8cA tidak saling berhubungan. Proses impor yang tidak terkait mungkin memerlukan beberapa pasangan. Kemudian dapat digunakan pada daftar transfer my8C4 Ke alamat agen Impor daftar Ke virtual account BCA Ke SakUkU BagiBagi Impor daftar transfer Dokumen dasar transaksi 2021PTBank Central Asia Tbk; Hak Cipta Dilindungi Undang-undang</t>
         </is>
       </c>
     </row>
